--- a/Pubmed/CCHF/ReferenceSummary_Genbank_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Genbank_Feb25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Desktop/HIV/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE29215-EEB8-5D41-BE83-F4A986268F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E599AF8D-0C6C-6941-AC31-5346C5F0926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1600" windowWidth="34540" windowHeight="20000" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
+    <workbookView xWindow="20" yWindow="900" windowWidth="34540" windowHeight="20000" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1109,9 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1131,7 @@
     <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.1640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="22" width="17.1640625" style="1" customWidth="1"/>

--- a/Pubmed/CCHF/ReferenceSummary_Genbank_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Genbank_Feb25.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Desktop/HIV/GenBankRefs/Pubmed/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E599AF8D-0C6C-6941-AC31-5346C5F0926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5E32E-CAC7-2641-A6A4-0D9CA630F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="900" windowWidth="34540" windowHeight="20000" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
+    <workbookView xWindow="640" yWindow="900" windowWidth="34540" windowHeight="20000" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="185">
   <si>
     <t>Authors</t>
   </si>
@@ -502,18 +502,6 @@
   </si>
   <si>
     <t>12924091</t>
-  </si>
-  <si>
-    <t>Deng F., Hu Z., Li T., Luo Y., Meng W., Sun S., Wang H., Wei P., Xia Y., Zhang F., Zhang Y., Zhou Z.</t>
-  </si>
-  <si>
-    <t>Serial expression of the truncated fragments of the nucleocapsid protein of CCHFV and identification of the epitope region, The Characterization of Crimean-Congo haemorrhagic Fever Virus Glycoproteins, The Crimean-Congo Haemorrhagic Fever Virus Genetic Analysis</t>
-  </si>
-  <si>
-    <t>45-51 (2010), CAS, China, Hubei 430071, Molecular Virology Lab, No. 44, Unpublished, Virol Sin 25 (1), Wuchan District, Wuhan, Wuhan Institution of Virology, Xiaohongshan Middle District</t>
-  </si>
-  <si>
-    <t>20960283</t>
   </si>
   <si>
     <t>Sudan</t>
@@ -576,18 +564,6 @@
   </si>
   <si>
     <t>plasma</t>
-  </si>
-  <si>
-    <t>The GenBank accession number for the CCHFV YL04057 strain used in this study is FJ562093</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>NP</t>
   </si>
   <si>
     <t>blood</t>
@@ -1107,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1367,7 @@
         <v>98</v>
       </c>
       <c r="U5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>101</v>
@@ -1749,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>14</v>
@@ -1805,7 +1781,7 @@
         <v>123</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>92</v>
@@ -1852,7 +1828,7 @@
         <v>90</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>14</v>
@@ -1864,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="32" x14ac:dyDescent="0.2">
@@ -1890,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P16" s="1">
         <v>2011</v>
@@ -2034,13 +2010,13 @@
         <v>79</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>18</v>
@@ -2049,7 +2025,7 @@
         <v>14</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>101</v>
@@ -2084,10 +2060,10 @@
         <v>2008</v>
       </c>
       <c r="Q20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>18</v>
@@ -2104,7 +2080,7 @@
     </row>
     <row r="21" spans="1:22" ht="240" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>130</v>
@@ -2125,10 +2101,10 @@
         <v>14</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>14</v>
@@ -2163,13 +2139,13 @@
         <v>15</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S22" t="s">
         <v>18</v>
@@ -2178,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>101</v>
@@ -2207,16 +2183,16 @@
         <v>14</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P23" s="1">
         <v>2001</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>14</v>
@@ -2225,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>101</v>
@@ -2254,16 +2230,16 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P24">
         <v>1980</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="S24" t="s">
         <v>18</v>
@@ -2272,7 +2248,7 @@
         <v>98</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>101</v>
@@ -2283,7 +2259,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>148</v>
@@ -2307,7 +2283,7 @@
         <v>2016</v>
       </c>
       <c r="Q25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>14</v>
@@ -2316,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>101</v>
@@ -2342,13 +2318,13 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>14</v>
@@ -2363,49 +2339,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="14">
-        <v>2010</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>177</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:W27" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}"/>
+  <autoFilter ref="A1:W26" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
